--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burak/Harvard/02_Courses/06_CSCI_E124/05_PAs/03_PA3/Supplemental/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UFUKTEBS\Documents\MS\04_CSCI_E124\05_PAs\03_PA3\00_Supplemental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02349F4-3119-E746-B573-D38C643AF28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109213FB-3549-443D-A100-82614BD20AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{CBE1D4B9-E9C3-E241-9029-50F174EF58C7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBE1D4B9-E9C3-E241-9029-50F174EF58C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>https://github.com/rlucioni/cs124/tree/master/assignment3</t>
   </si>
@@ -62,6 +61,15 @@
   </si>
   <si>
     <t>https://github.com/samuelklam/number-partitioning</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>cpp</t>
   </si>
 </sst>
 </file>
@@ -424,58 +432,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02833C9B-3FDA-2F40-9B54-8C95AAB713FB}">
-  <dimension ref="A3:A18"/>
+  <dimension ref="A3:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -493,5 +519,6 @@
     <hyperlink ref="A8" r:id="rId9" xr:uid="{F2DD6EA9-83F8-384C-9DA0-54B8B11EF335}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>